--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="191">
   <si>
     <t>用例编号</t>
   </si>
@@ -1380,6 +1380,10 @@
   </si>
   <si>
     <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1894,18 +1898,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,11 +2007,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2101,9 +2109,10 @@
       <c r="AF2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2200,9 +2209,10 @@
       <c r="AF3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2299,9 +2309,10 @@
       <c r="AF4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2398,13 +2409,35 @@
       <c r="AF5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -2421,15 +2454,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="43" max="43" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:44" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2556,11 +2592,14 @@
       <c r="AP1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
@@ -2687,7 +2726,38 @@
       <c r="AP2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AQ2" s="7"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="AQ3" s="3"/>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="AQ4" s="3"/>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="AQ5" s="3"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="AQ6" s="3"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="AQ7" s="3"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="AQ8" s="3"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="AQ9" s="3"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="AQ10" s="3"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="AQ11" s="3"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="AQ12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2695,7 +2765,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ2 AQ3:AQ1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
@@ -3718,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -3735,11 +3805,12 @@
     <col min="37" max="37" width="6" style="4" customWidth="1"/>
     <col min="38" max="41" width="6" style="5" customWidth="1"/>
     <col min="42" max="42" width="7.625" style="19" customWidth="1"/>
-    <col min="43" max="43" width="6.625" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="10.875" style="9"/>
+    <col min="43" max="43" width="13.5" style="4" customWidth="1"/>
+    <col min="44" max="44" width="6.625" style="4" customWidth="1"/>
+    <col min="45" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:44" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,11 +3937,14 @@
       <c r="AP1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
@@ -3997,9 +4071,10 @@
       <c r="AP2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AQ2" s="7"/>
-    </row>
-    <row r="3" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -4041,9 +4116,10 @@
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="18"/>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="4"/>
+    </row>
+    <row r="4" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4086,9 +4162,10 @@
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="18"/>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="4"/>
+    </row>
+    <row r="5" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4131,9 +4208,10 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="18"/>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="4"/>
+    </row>
+    <row r="6" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4176,9 +4254,10 @@
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="18"/>
-      <c r="AQ6" s="4"/>
-    </row>
-    <row r="7" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="4"/>
+    </row>
+    <row r="7" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4221,9 +4300,10 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="18"/>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="4"/>
+    </row>
+    <row r="8" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4266,9 +4346,10 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="18"/>
-      <c r="AQ8" s="4"/>
-    </row>
-    <row r="9" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="4"/>
+    </row>
+    <row r="9" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4311,9 +4392,10 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="18"/>
-      <c r="AQ9" s="4"/>
-    </row>
-    <row r="10" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="4"/>
+    </row>
+    <row r="10" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4356,9 +4438,10 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="18"/>
-      <c r="AQ10" s="4"/>
-    </row>
-    <row r="11" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="4"/>
+    </row>
+    <row r="11" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4401,9 +4484,10 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="18"/>
-      <c r="AQ11" s="4"/>
-    </row>
-    <row r="12" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="4"/>
+    </row>
+    <row r="12" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4446,9 +4530,10 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="18"/>
-      <c r="AQ12" s="4"/>
-    </row>
-    <row r="13" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="4"/>
+    </row>
+    <row r="13" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4492,8 +4577,9 @@
       <c r="AO13" s="5"/>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="4"/>
-    </row>
-    <row r="14" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR13" s="4"/>
+    </row>
+    <row r="14" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4537,8 +4623,9 @@
       <c r="AO14" s="5"/>
       <c r="AP14" s="19"/>
       <c r="AQ14" s="4"/>
-    </row>
-    <row r="15" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR14" s="4"/>
+    </row>
+    <row r="15" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4582,8 +4669,9 @@
       <c r="AO15" s="5"/>
       <c r="AP15" s="19"/>
       <c r="AQ15" s="4"/>
-    </row>
-    <row r="16" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR15" s="4"/>
+    </row>
+    <row r="16" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4627,8 +4715,9 @@
       <c r="AO16" s="5"/>
       <c r="AP16" s="19"/>
       <c r="AQ16" s="4"/>
-    </row>
-    <row r="17" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR16" s="4"/>
+    </row>
+    <row r="17" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4672,8 +4761,9 @@
       <c r="AO17" s="5"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="4"/>
-    </row>
-    <row r="18" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR17" s="4"/>
+    </row>
+    <row r="18" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4717,8 +4807,9 @@
       <c r="AO18" s="5"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="4"/>
-    </row>
-    <row r="19" spans="1:43" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AR18" s="4"/>
+    </row>
+    <row r="19" spans="1:44" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4762,6 +4853,7 @@
       <c r="AO19" s="5"/>
       <c r="AP19" s="19"/>
       <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4769,7 +4861,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK13:AK1048576 AJ1:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK13:AK1048576 AJ1:AJ1048576 AQ3:AQ1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1">
@@ -4784,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -4803,11 +4895,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="19" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4904,11 +4997,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4941,9 +5037,10 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="18"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4976,9 +5073,10 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="18"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5011,9 +5109,10 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="18"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5046,9 +5145,10 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="18"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5081,9 +5181,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="18"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5116,9 +5217,10 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="18"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5151,9 +5253,10 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="18"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5186,9 +5289,10 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="18"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5221,9 +5325,10 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="18"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5256,9 +5361,10 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="18"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5291,9 +5397,10 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="18"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5327,8 +5434,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5362,8 +5470,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5397,8 +5506,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5432,8 +5542,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5467,8 +5578,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5502,8 +5614,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5537,11 +5650,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -977,10 +977,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>选择结构单元；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Button3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1088,14 +1084,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>均  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>极  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金属结构强度校核-&gt;金属曲板后驱曲强度校核</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1256,10 +1244,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>长桁总体失稳（端头）；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>方式二</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1384,6 +1368,22 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长桁总体失稳（端头）][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>均  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2008,7 +2008,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2476,85 +2476,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="M1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="U1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="AC1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AE1" s="15" t="s">
         <v>84</v>
@@ -2563,7 +2563,7 @@
         <v>85</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>65</v>
@@ -2593,7 +2593,7 @@
         <v>81</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>70</v>
@@ -2601,28 +2601,28 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="I2" s="14">
         <v>150</v>
@@ -2631,100 +2631,100 @@
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U2" s="14">
         <v>2</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN2" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="AO2" s="7">
         <v>1</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="7"/>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2795,85 +2795,85 @@
     <row r="1" spans="1:32" s="10" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="K1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="R1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="X1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="AA1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AC1" s="15" t="s">
         <v>84</v>
@@ -2882,7 +2882,7 @@
         <v>85</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>65</v>
@@ -2893,91 +2893,91 @@
         <v>66</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="AA2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>86</v>
@@ -2991,97 +2991,97 @@
         <v>67</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="20" t="s">
+      <c r="M3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="T3" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="X3" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="Y3" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="Z3" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="W3" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="AA3" s="20" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="AC3" s="20" t="s">
         <v>87</v>
       </c>
       <c r="AD3" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="66.75" customHeight="1">
@@ -3089,97 +3089,97 @@
         <v>68</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="AB4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="AE4" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="66.75" customHeight="1">
@@ -3187,97 +3187,97 @@
         <v>77</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AE5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AE5" s="20" t="s">
-        <v>96</v>
-      </c>
       <c r="AF5" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="66.75" customHeight="1">
@@ -3380,394 +3380,394 @@
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AD7" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="AE7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="40.5" customHeight="1"/>
@@ -3821,85 +3821,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="M1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="U1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="AC1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AE1" s="15" t="s">
         <v>84</v>
@@ -3908,7 +3908,7 @@
         <v>85</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>65</v>
@@ -3938,7 +3938,7 @@
         <v>81</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>70</v>
@@ -3946,28 +3946,28 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="I2" s="14">
         <v>150</v>
@@ -3976,100 +3976,100 @@
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="R2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U2" s="14">
         <v>2</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN2" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="AO2" s="7">
         <v>1</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="7"/>
@@ -4878,7 +4878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
@@ -4998,7 +4998,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
@@ -2782,7 +2782,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属曲板后驱曲强度校核.xlsx
@@ -913,10 +913,6 @@
     <t>操作子窗口标题</t>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果等待时间</t>
   </si>
   <si>
@@ -1384,6 +1380,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2002,13 +2002,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2107,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="AF2" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="7"/>
@@ -2120,7 +2120,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -2207,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="4"/>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="4"/>
@@ -2407,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="4"/>
@@ -2476,94 +2476,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="AC1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>65</v>
@@ -2587,13 +2587,13 @@
         <v>26</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>70</v>
@@ -2601,28 +2601,28 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="I2" s="14">
         <v>150</v>
@@ -2631,100 +2631,100 @@
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" s="14">
         <v>2</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN2" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="AO2" s="7">
         <v>1</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="7"/>
@@ -2782,7 +2782,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2795,94 +2795,94 @@
     <row r="1" spans="1:32" s="10" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="AA1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>65</v>
@@ -2893,97 +2893,97 @@
         <v>66</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="K2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="U2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="Y2" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="104.25" customHeight="1">
@@ -2991,97 +2991,97 @@
         <v>67</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>154</v>
-      </c>
       <c r="M3" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AB3" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AC3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AE3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="66.75" customHeight="1">
@@ -3089,195 +3089,195 @@
         <v>68</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="AB4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="AE4" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="66.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AE5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="AF5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="66.75" customHeight="1">
@@ -3380,394 +3380,394 @@
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC7" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD7" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AD7" s="20" t="s">
-        <v>97</v>
-      </c>
       <c r="AE7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="40.5" customHeight="1"/>
@@ -3821,94 +3821,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="AC1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>65</v>
@@ -3932,13 +3932,13 @@
         <v>26</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>70</v>
@@ -3946,28 +3946,28 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="I2" s="14">
         <v>150</v>
@@ -3976,100 +3976,100 @@
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="R2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" s="14">
         <v>2</v>
       </c>
       <c r="V2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN2" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="AO2" s="7">
         <v>1</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="7"/>
@@ -4992,13 +4992,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
